--- a/medicine/Sexualité et sexologie/Tricophilie/Tricophilie.xlsx
+++ b/medicine/Sexualité et sexologie/Tricophilie/Tricophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tricophilie (ou plus certainement trichophilie) est une paraphilie dans laquelle un individu est sexuellement attiré par la pilosité humaine ; plus communément les cheveux[1] selon la classification DSM.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tricophilie (ou plus certainement trichophilie) est une paraphilie dans laquelle un individu est sexuellement attiré par la pilosité humaine ; plus communément les cheveux selon la classification DSM.
 L'excitation sexuelle peut survenir en observant, touchant ou mangeant tout type de poils, incluant notamment les cheveux, les poils pubiens ou la fourrure.
 Le fétichisme des cheveux est une paraphilie connexe dans laquelle un individu est sexuellement attiré par sa propre coupe de cheveux, par le fait de couper les cheveux des autres, de regarder d'autres individus se faire coiffer ou d'observer quelqu'un ayant une coupe de cheveux particulière, qu'ils soient longs, courts ou rasés. 
-Couper ou s'occuper des cheveux donne la même sensation de bien-être que les massages ou les caresses. Lors d'une coupe ou d'une teinte de cheveux, le corps produit des endorphines, et les individus prennent ainsi du plaisir[2]. Les tricophiles peuvent également s'occuper des cheveux d'individus qu'ils n'ont jamais vus, ou voler des objets liés à la coiffure comme des bigoudis dans un espace public[3]. D'autres individus tricophiles fantasmeraient ou voudraient littéralement « se frotter contre les cheveux de quelqu'un »[4].  Ils peuvent aimer caresser, brosser, coiffer ou laver les cheveux d'autres personnes et/ou aimer que l'on s'occupe de leurs cheveux.
+Couper ou s'occuper des cheveux donne la même sensation de bien-être que les massages ou les caresses. Lors d'une coupe ou d'une teinte de cheveux, le corps produit des endorphines, et les individus prennent ainsi du plaisir. Les tricophiles peuvent également s'occuper des cheveux d'individus qu'ils n'ont jamais vus, ou voler des objets liés à la coiffure comme des bigoudis dans un espace public. D'autres individus tricophiles fantasmeraient ou voudraient littéralement « se frotter contre les cheveux de quelqu'un ».  Ils peuvent aimer caresser, brosser, coiffer ou laver les cheveux d'autres personnes et/ou aimer que l'on s'occupe de leurs cheveux.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'ordre de déterminer la prévalence relative des différents fétiches, des scientifiques ont obtenu plusieurs avis d'environ 5 000 individus dans le monde, en 2007, sur 381 forums de discussion sur Internet. Les prévalences relatives ont été estimées à l'aide (a) d'un nombre de groupes attirés par un fétiche particulier, (b) du nombre d'individus participant aux groupes et (c) du nombre de messages échangés. 7 pour cent de ces individus se seraient sexuellement tournés vers les cheveux (contre 12 pour les sous-vêtements, 4 pour les parties génitales, 3 pour les seins, 2 pour les fesses, et moins d'un pour cent pour les poils corporels[5],[6]). Sigmund Freud explique que la coupe des cheveux d'une femme par un homme pourrait représenter la peur et/ou le concept de la castration. Signifiant ainsi que les longs cheveux d'une femme représentent un pénis figuratif et que couper ses cheveux ferait sentir, à l'homme qui les coupe, de la domination[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'ordre de déterminer la prévalence relative des différents fétiches, des scientifiques ont obtenu plusieurs avis d'environ 5 000 individus dans le monde, en 2007, sur 381 forums de discussion sur Internet. Les prévalences relatives ont été estimées à l'aide (a) d'un nombre de groupes attirés par un fétiche particulier, (b) du nombre d'individus participant aux groupes et (c) du nombre de messages échangés. 7 pour cent de ces individus se seraient sexuellement tournés vers les cheveux (contre 12 pour les sous-vêtements, 4 pour les parties génitales, 3 pour les seins, 2 pour les fesses, et moins d'un pour cent pour les poils corporels,). Sigmund Freud explique que la coupe des cheveux d'une femme par un homme pourrait représenter la peur et/ou le concept de la castration. Signifiant ainsi que les longs cheveux d'une femme représentent un pénis figuratif et que couper ses cheveux ferait sentir, à l'homme qui les coupe, de la domination.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fétiche des coupes de cheveux trouve ses racines à la fois dans la Grèce antique, dans les récits bibliques, les rites religieux et les guerres. Dans la mythologie de Samson et Dalila, la force est associée aux cheveux. Dans les religions chrétiennes, bouddhistes et hindoues la tonsure est un rite établi combinant la privation de cheveux avec la pureté du corps.  Chez les Amérindiens, traditionnellement, les cheveux sont considérés comme sacrés et ne doivent être coupés qu'en cas de deuil.  
 Dans les guerres anciennes ou modernes, la scalpation ou la tonte furent de tout temps pratiquées. Pendant la Guerre de Vendée et la Chouannerie, les Vendéens et les Chouans avaient pour habitude de tondre les prisonniers républicains. Ceux-ci étaient ensuite libérés après avoir prêté le serment de ne plus se battre contre les royalistes, ils pouvaient ainsi être reconnus s'ils trahissaient leur serment. À la Libération, les femmes accusées d'avoir entretenu des liaisons avec des soldats ennemis étaient parfois tondues.
@@ -578,7 +594,9 @@
           <t>Traits tricophiles dans la littérature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le folklore irlandais, la belle Caer Ibormaith, qui vit parfois sous la forme d'un cygne et dont le dieu de l'amour Oengus tombe amoureux, est décrite comme ayant de longs cheveux à la couleur des blés qui tombaient jusqu'au derrière de ses genoux. 
 Dans le roman Cligès ou la Fausse Morte écrit par Chrétien de Troyes, Soredamor, nièce du roi Arthur, dissimule l'un de ses cheveux parmi des fils d'or cousus sur une chemise que la reine donne en guise de récompense à celui que Soredamor aime, Alexandre, fils de l'empereur de Constantinople et chevalier de la cour du roi Arthur.
